--- a/Hindi-Imposition-Analysis.xlsx
+++ b/Hindi-Imposition-Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED6C1F-7717-4FF7-8759-3215559B8215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F5BFF-1B41-4732-A0CC-BB1B5B9D7AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6576" yWindow="1260" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="1260" windowWidth="11916" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,13 +158,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.4180000000000097E-2</c:v>
+                  <c:v>0.86916000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86916000000000004</c:v>
+                  <c:v>3.6639999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6639999999999999E-2</c:v>
+                  <c:v>9.4180000000000097E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>9.4180000000000097E-2</v>
+        <v>0.86916000000000004</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>0.86916000000000004</v>
+        <v>3.6639999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>3.6639999999999999E-2</v>
+        <v>9.4180000000000097E-2</v>
       </c>
       <c r="F5" s="1"/>
     </row>

--- a/Hindi-Imposition-Analysis.xlsx
+++ b/Hindi-Imposition-Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F5BFF-1B41-4732-A0CC-BB1B5B9D7AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ABF8ED-B333-4724-AFD0-31ED50DCCC00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="1260" windowWidth="11916" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9516" yWindow="1356" windowWidth="11916" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
